--- a/Database/Datasets/Dataset.xlsx
+++ b/Database/Datasets/Dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\talha\Documents\My Work\Open Clinic\Database\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1913A427-50C3-4964-AE4E-5A8B6FE93EC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4A5464-04C4-45C3-8838-7AAE7E715B13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="4" activeTab="5" xr2:uid="{EE1ABA56-A829-458E-9FD5-4D3B389ED699}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="3" activeTab="3" xr2:uid="{EE1ABA56-A829-458E-9FD5-4D3B389ED699}"/>
   </bookViews>
   <sheets>
     <sheet name="OC_PERSON" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="765">
   <si>
     <t>Landon</t>
   </si>
@@ -2331,6 +2331,9 @@
   </si>
   <si>
     <t>SR_NO</t>
+  </si>
+  <si>
+    <t>ENROLLMENT_DATE</t>
   </si>
 </sst>
 </file>
@@ -7855,10 +7858,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB3095F-F57B-408C-9A02-3ADE3D5CF50D}">
-  <dimension ref="B2:M25"/>
+  <dimension ref="B1:M25"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7873,11 +7876,15 @@
     <col min="8" max="8" width="21.5703125" style="6" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="6"/>
     <col min="10" max="10" width="11" style="6" customWidth="1"/>
-    <col min="11" max="12" width="9.140625" style="6"/>
+    <col min="11" max="11" width="9.140625" style="6"/>
+    <col min="12" max="12" width="27.5703125" style="6" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M1" s="6"/>
+    </row>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="14" t="s">
         <v>501</v>
       </c>
@@ -7893,8 +7900,11 @@
       <c r="J2" s="3" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L2" s="3" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="12">
         <v>110001</v>
       </c>
@@ -7910,8 +7920,11 @@
       <c r="J4" s="6">
         <v>1000</v>
       </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L4" s="17">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="12">
         <v>110002</v>
       </c>
@@ -7927,8 +7940,11 @@
       <c r="J5" s="6">
         <v>3500</v>
       </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L5" s="17">
+        <v>43467</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="12">
         <v>110003</v>
       </c>
@@ -7944,8 +7960,11 @@
       <c r="J6" s="6">
         <v>3000</v>
       </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L6" s="17">
+        <v>43680</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="12">
         <v>110004</v>
       </c>
@@ -7961,8 +7980,11 @@
       <c r="J7" s="6">
         <v>2500</v>
       </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L7" s="17">
+        <v>43469</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="12">
         <v>110005</v>
       </c>
@@ -7978,8 +8000,11 @@
       <c r="J8" s="6">
         <v>2500</v>
       </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L8" s="17">
+        <v>43774</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="12">
         <v>110006</v>
       </c>
@@ -7995,8 +8020,11 @@
       <c r="J9" s="6">
         <v>1000</v>
       </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L9" s="17">
+        <v>43530</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="12">
         <v>110007</v>
       </c>
@@ -8012,8 +8040,11 @@
       <c r="J10" s="6">
         <v>2000</v>
       </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L10" s="17">
+        <v>43472</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="12">
         <v>110008</v>
       </c>
@@ -8029,8 +8060,11 @@
       <c r="J11" s="6">
         <v>2000</v>
       </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L11" s="17">
+        <v>43593</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="12">
         <v>110009</v>
       </c>
@@ -8046,8 +8080,11 @@
       <c r="J12" s="6">
         <v>1000</v>
       </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L12" s="17">
+        <v>43474</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="12">
         <v>110010</v>
       </c>
@@ -8063,8 +8100,11 @@
       <c r="J13" s="6">
         <v>1000</v>
       </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L13" s="17">
+        <v>43534</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="12">
         <v>110011</v>
       </c>
@@ -8080,8 +8120,11 @@
       <c r="J14" s="6">
         <v>7000</v>
       </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L14" s="17">
+        <v>43507</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="12">
         <v>110012</v>
       </c>
@@ -8097,8 +8140,11 @@
       <c r="J15" s="6">
         <v>1000</v>
       </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L15" s="17">
+        <v>43628</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="12">
         <v>110013</v>
       </c>
@@ -8114,8 +8160,11 @@
       <c r="J16" s="6">
         <v>2000</v>
       </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L16" s="17">
+        <v>43478</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="12">
         <v>110014</v>
       </c>
@@ -8131,8 +8180,11 @@
       <c r="J17" s="6">
         <v>3500</v>
       </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L17" s="17">
+        <v>43660</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="12">
         <v>110015</v>
       </c>
@@ -8148,8 +8200,11 @@
       <c r="J18" s="6">
         <v>5000</v>
       </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L18" s="17">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="12">
         <v>110016</v>
       </c>
@@ -8165,8 +8220,11 @@
       <c r="J19" s="6">
         <v>2000</v>
       </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L19" s="17">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="12">
         <v>110017</v>
       </c>
@@ -8182,8 +8240,11 @@
       <c r="J20" s="6">
         <v>1000</v>
       </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L20" s="17">
+        <v>43816</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="12">
         <v>110018</v>
       </c>
@@ -8199,8 +8260,11 @@
       <c r="J21" s="6">
         <v>3000</v>
       </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L21" s="17">
+        <v>43483</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="12">
         <v>110019</v>
       </c>
@@ -8216,8 +8280,11 @@
       <c r="J22" s="6">
         <v>4000</v>
       </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L22" s="17">
+        <v>43788</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="12">
         <v>110020</v>
       </c>
@@ -8233,8 +8300,11 @@
       <c r="J23" s="6">
         <v>1500</v>
       </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L23" s="17">
+        <v>43544</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="12">
         <v>110021</v>
       </c>
@@ -8250,8 +8320,11 @@
       <c r="J24" s="6">
         <v>2000</v>
       </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L24" s="17">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="F25" s="15"/>
     </row>
   </sheetData>
@@ -10913,8 +10986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEECFFF8-A125-48A5-B696-0EB27286E7F1}">
   <dimension ref="B2:P85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView zoomScale="76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Database/Datasets/Dataset.xlsx
+++ b/Database/Datasets/Dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\talha\Documents\My Work\Open Clinic\Database\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4A5464-04C4-45C3-8838-7AAE7E715B13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{185BCA43-076B-4696-9973-10EE83271CCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="3" activeTab="3" xr2:uid="{EE1ABA56-A829-458E-9FD5-4D3B389ED699}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{EE1ABA56-A829-458E-9FD5-4D3B389ED699}"/>
   </bookViews>
   <sheets>
     <sheet name="OC_PERSON" sheetId="1" r:id="rId1"/>
@@ -27,12 +27,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -2894,8 +2888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70AEBCE7-1F48-4C29-9820-3AAB58BEF16A}">
   <dimension ref="B2:U103"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2951,2906 +2945,2909 @@
       <c r="U2" s="3"/>
     </row>
     <row r="4" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="8">
-        <v>3320218245881</v>
+      <c r="B4" s="9">
+        <v>1644425695211</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="J4" s="1">
-        <v>28</v>
+        <v>234</v>
+      </c>
+      <c r="J4">
+        <v>42</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>289</v>
+        <v>339</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>399</v>
+        <v>449</v>
       </c>
     </row>
     <row r="5" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="8">
-        <v>3320218245882</v>
+      <c r="B5" s="9">
+        <v>1644425695212</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>96</v>
+        <v>141</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="J5" s="1">
+        <v>235</v>
+      </c>
+      <c r="J5">
+        <v>35</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="9">
+        <v>1644425695213</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="6" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="8">
-        <v>3320218245883</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>97</v>
+        <v>142</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J6" s="1">
-        <v>44</v>
+        <v>236</v>
+      </c>
+      <c r="J6">
+        <v>27</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>287</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>291</v>
+        <v>341</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>401</v>
+        <v>451</v>
       </c>
     </row>
     <row r="7" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="8">
-        <v>3320218245884</v>
+      <c r="B7" s="9">
+        <v>1644425695214</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>98</v>
+        <v>143</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="J7" s="1">
-        <v>26</v>
+        <v>237</v>
+      </c>
+      <c r="J7">
+        <v>28</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>287</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>292</v>
+        <v>342</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>402</v>
+        <v>452</v>
       </c>
     </row>
     <row r="8" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="8">
-        <v>3320218245885</v>
+      <c r="B8" s="9">
+        <v>1644425695215</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="J8" s="1">
-        <v>48</v>
+        <v>238</v>
+      </c>
+      <c r="J8">
+        <v>27</v>
       </c>
       <c r="L8" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="9">
+        <v>1644425695216</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="J9">
+        <v>37</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="9">
+        <v>1644425695217</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="J10">
+        <v>53</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="9">
+        <v>1644425695218</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J11">
+        <v>59</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="N8" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="P8" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="9" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="8">
-        <v>3320218245886</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="J9" s="1">
-        <v>43</v>
-      </c>
-      <c r="L9" s="1" t="s">
+      <c r="N11" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="9">
+        <v>1644425695219</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="J12">
+        <v>27</v>
+      </c>
+      <c r="L12" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="N9" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="P9" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="10" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="8">
-        <v>3320218245887</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="J10" s="1">
-        <v>46</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="P10" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="11" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="8">
-        <v>3320218245888</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="J11" s="1">
-        <v>53</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="P11" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="12" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="8">
-        <v>3320218245889</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="J12" s="1">
-        <v>23</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>287</v>
-      </c>
       <c r="N12" s="1" t="s">
-        <v>297</v>
+        <v>347</v>
       </c>
       <c r="P12" s="6" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>407</v>
+        <v>457</v>
       </c>
     </row>
     <row r="13" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="8">
-        <v>3320218245890</v>
+      <c r="B13" s="9">
+        <v>1644425695220</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>104</v>
+        <v>149</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="J13" s="1">
-        <v>55</v>
+        <v>243</v>
+      </c>
+      <c r="J13">
+        <v>56</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>286</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>298</v>
+        <v>348</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>408</v>
+        <v>458</v>
       </c>
     </row>
     <row r="14" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="8">
-        <v>3320218245891</v>
+      <c r="B14" s="9">
+        <v>1644425695221</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="J14" s="1">
-        <v>49</v>
+        <v>244</v>
+      </c>
+      <c r="J14">
+        <v>50</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>287</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>299</v>
+        <v>349</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>409</v>
+        <v>459</v>
       </c>
     </row>
     <row r="15" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="8">
-        <v>3320218245892</v>
+      <c r="B15" s="9">
+        <v>1644425695222</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>106</v>
+        <v>151</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="J15" s="1">
-        <v>64</v>
+        <v>245</v>
+      </c>
+      <c r="J15">
+        <v>32</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>286</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="P15" s="6" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>410</v>
+        <v>460</v>
       </c>
     </row>
     <row r="16" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="8">
-        <v>3320218245893</v>
+      <c r="B16" s="9">
+        <v>1644425695223</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="J16" s="1">
-        <v>33</v>
+        <v>246</v>
+      </c>
+      <c r="J16">
+        <v>30</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="P16" s="6" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>411</v>
+        <v>461</v>
       </c>
     </row>
     <row r="17" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="8">
-        <v>3320218245894</v>
+      <c r="B17" s="9">
+        <v>1644425695224</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>108</v>
+        <v>152</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="J17" s="1">
-        <v>38</v>
+        <v>247</v>
+      </c>
+      <c r="J17">
+        <v>22</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>302</v>
+        <v>352</v>
       </c>
       <c r="P17" s="6" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>412</v>
+        <v>462</v>
       </c>
     </row>
     <row r="18" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="8">
-        <v>3320218245895</v>
+      <c r="B18" s="9">
+        <v>1644425695225</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>109</v>
+        <v>153</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J18" s="1">
-        <v>62</v>
+        <v>248</v>
+      </c>
+      <c r="J18">
+        <v>21</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>286</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>303</v>
+        <v>353</v>
       </c>
       <c r="P18" s="6" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>413</v>
+        <v>463</v>
       </c>
     </row>
     <row r="19" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="8">
-        <v>3320218245896</v>
+      <c r="B19" s="9">
+        <v>1644425695226</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="J19" s="1">
-        <v>23</v>
+        <v>249</v>
+      </c>
+      <c r="J19">
+        <v>51</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>286</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>304</v>
+        <v>354</v>
       </c>
       <c r="P19" s="6" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>414</v>
+        <v>464</v>
       </c>
     </row>
     <row r="20" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="8">
-        <v>3320218245897</v>
+      <c r="B20" s="9">
+        <v>1644425695227</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="J20" s="1">
-        <v>28</v>
+        <v>250</v>
+      </c>
+      <c r="J20">
+        <v>35</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>305</v>
+        <v>355</v>
       </c>
       <c r="P20" s="6" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>415</v>
+        <v>465</v>
       </c>
     </row>
     <row r="21" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="8">
-        <v>3320218245898</v>
+      <c r="B21" s="9">
+        <v>1644425695228</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="J21" s="1">
-        <v>50</v>
+        <v>251</v>
+      </c>
+      <c r="J21">
+        <v>62</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>286</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>306</v>
+        <v>356</v>
       </c>
       <c r="P21" s="6" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>416</v>
+        <v>466</v>
       </c>
     </row>
     <row r="22" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="8">
-        <v>3320218245899</v>
+      <c r="B22" s="9">
+        <v>1644425695229</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="J22" s="1">
-        <v>48</v>
+        <v>252</v>
+      </c>
+      <c r="J22">
+        <v>35</v>
       </c>
       <c r="L22" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="P22" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="9">
+        <v>1644425695230</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="J23">
+        <v>61</v>
+      </c>
+      <c r="L23" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="N22" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="P22" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="R22" s="1" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="23" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="8">
-        <v>3320218245900</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="J23" s="1">
-        <v>54</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>287</v>
-      </c>
       <c r="N23" s="1" t="s">
-        <v>308</v>
+        <v>358</v>
       </c>
       <c r="P23" s="6" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>418</v>
+        <v>468</v>
       </c>
     </row>
     <row r="24" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="8">
-        <v>3320218245901</v>
+      <c r="B24" s="9">
+        <v>1644425695231</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>115</v>
+        <v>158</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="J24" s="1">
-        <v>20</v>
+        <v>254</v>
+      </c>
+      <c r="J24">
+        <v>61</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>286</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>309</v>
+        <v>359</v>
       </c>
       <c r="P24" s="6" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>419</v>
+        <v>469</v>
       </c>
     </row>
     <row r="25" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="8">
-        <v>3320218245902</v>
+      <c r="B25" s="9">
+        <v>1644425695232</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J25">
+        <v>50</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="P25" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="9">
+        <v>1644425695233</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="J26">
         <v>21</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="J25" s="1">
-        <v>38</v>
-      </c>
-      <c r="L25" s="1" t="s">
+      <c r="L26" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="9">
+        <v>1644425695234</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="J27">
+        <v>47</v>
+      </c>
+      <c r="L27" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="N25" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="P25" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="R25" s="1" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="26" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="8">
-        <v>3320218245903</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="J26" s="1">
-        <v>35</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="P26" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="R26" s="1" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="27" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="8">
-        <v>3320218245904</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="J27" s="1">
-        <v>21</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="N27" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="P27" s="6" t="s">
-        <v>392</v>
+        <v>362</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>396</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>422</v>
+        <v>472</v>
       </c>
     </row>
     <row r="28" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="8">
-        <v>3320218245905</v>
+      <c r="B28" s="9">
+        <v>1644425695235</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>119</v>
+        <v>162</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="J28" s="1">
-        <v>31</v>
+        <v>258</v>
+      </c>
+      <c r="J28">
+        <v>42</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>287</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="P28" s="6" t="s">
-        <v>393</v>
+        <v>363</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>396</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>423</v>
+        <v>473</v>
       </c>
     </row>
     <row r="29" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="9">
-        <v>3526210098780</v>
+        <v>1644425695236</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>120</v>
+        <v>163</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="J29" s="1">
-        <v>54</v>
+        <v>259</v>
+      </c>
+      <c r="J29">
+        <v>30</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>287</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="P29" s="6" t="s">
-        <v>393</v>
+        <v>364</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>396</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>424</v>
+        <v>474</v>
       </c>
     </row>
     <row r="30" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="9">
-        <v>3526210098781</v>
+        <v>1644425695237</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="J30" s="1">
-        <v>27</v>
+        <v>260</v>
+      </c>
+      <c r="J30">
+        <v>58</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="P30" s="6" t="s">
-        <v>393</v>
+        <v>365</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>396</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>425</v>
+        <v>475</v>
       </c>
     </row>
     <row r="31" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="9">
-        <v>3526210098782</v>
+        <v>1644425695238</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>122</v>
+        <v>164</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="J31" s="1">
-        <v>62</v>
+        <v>261</v>
+      </c>
+      <c r="J31">
+        <v>45</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="P31" s="6" t="s">
-        <v>393</v>
+        <v>366</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>396</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>426</v>
+        <v>476</v>
       </c>
     </row>
     <row r="32" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="9">
-        <v>3526210098783</v>
+        <v>1644425695239</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="J32" s="1">
-        <v>43</v>
+        <v>262</v>
+      </c>
+      <c r="J32">
+        <v>41</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>287</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="P32" s="6" t="s">
-        <v>393</v>
+        <v>367</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>396</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>427</v>
+        <v>477</v>
       </c>
     </row>
     <row r="33" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="9">
-        <v>3526210098784</v>
+        <v>1644425695240</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="J33" s="1">
-        <v>40</v>
+        <v>263</v>
+      </c>
+      <c r="J33">
+        <v>46</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>287</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="P33" s="6" t="s">
-        <v>393</v>
+        <v>368</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>396</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>428</v>
+        <v>478</v>
       </c>
     </row>
     <row r="34" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="9">
-        <v>3526210098785</v>
+        <v>1644425695241</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="J34" s="1">
-        <v>27</v>
+        <v>264</v>
+      </c>
+      <c r="J34">
+        <v>36</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>286</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="P34" s="6" t="s">
-        <v>393</v>
+        <v>369</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>396</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>429</v>
+        <v>479</v>
       </c>
     </row>
     <row r="35" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="9">
-        <v>3526210098786</v>
+        <v>1644425695242</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>126</v>
+        <v>168</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="J35" s="1">
-        <v>18</v>
+        <v>265</v>
+      </c>
+      <c r="J35">
+        <v>27</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="P35" s="6" t="s">
-        <v>393</v>
+        <v>370</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>396</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>430</v>
+        <v>480</v>
       </c>
     </row>
     <row r="36" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="9">
-        <v>3526210098787</v>
+        <v>1644425695243</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>20</v>
+        <v>161</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="J36" s="1">
-        <v>33</v>
+        <v>266</v>
+      </c>
+      <c r="J36">
+        <v>22</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="P36" s="6" t="s">
-        <v>393</v>
+        <v>371</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>396</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>431</v>
+        <v>481</v>
       </c>
     </row>
     <row r="37" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" s="9">
-        <v>3526210098788</v>
+        <v>1644425695244</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>127</v>
+        <v>169</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="J37" s="1">
+        <v>267</v>
+      </c>
+      <c r="J37">
         <v>49</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="P37" s="6" t="s">
-        <v>393</v>
+        <v>372</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>396</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>432</v>
+        <v>482</v>
       </c>
     </row>
     <row r="38" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B38" s="9">
-        <v>3526210098789</v>
+        <v>1644425695245</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>128</v>
+        <v>161</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="J38" s="1">
-        <v>39</v>
+        <v>268</v>
+      </c>
+      <c r="J38">
+        <v>26</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="P38" s="6" t="s">
-        <v>393</v>
+        <v>373</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>396</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>433</v>
+        <v>483</v>
       </c>
     </row>
     <row r="39" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="9">
-        <v>3526210098790</v>
+        <v>1644425695246</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>67</v>
+        <v>170</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="J39" s="1">
-        <v>40</v>
+        <v>269</v>
+      </c>
+      <c r="J39">
+        <v>26</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="P39" s="6" t="s">
-        <v>393</v>
+        <v>374</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>396</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>434</v>
+        <v>484</v>
       </c>
     </row>
     <row r="40" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="9">
-        <v>3526210098791</v>
+        <v>1644425695247</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="J40" s="1">
-        <v>50</v>
+        <v>270</v>
+      </c>
+      <c r="J40">
+        <v>52</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="P40" s="6" t="s">
-        <v>393</v>
+        <v>375</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>396</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>435</v>
+        <v>485</v>
       </c>
     </row>
     <row r="41" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="9">
-        <v>3526210098792</v>
+        <v>1644425695248</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="J41" s="1">
-        <v>19</v>
+        <v>271</v>
+      </c>
+      <c r="J41">
+        <v>27</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="P41" s="6" t="s">
-        <v>393</v>
+        <v>376</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>396</v>
       </c>
       <c r="R41" s="1" t="s">
-        <v>436</v>
+        <v>486</v>
       </c>
     </row>
     <row r="42" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="9">
-        <v>3526210098793</v>
+        <v>1644425695249</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="J42" s="1">
-        <v>48</v>
+        <v>272</v>
+      </c>
+      <c r="J42">
+        <v>34</v>
       </c>
       <c r="L42" s="1" t="s">
         <v>286</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="P42" s="6" t="s">
-        <v>393</v>
+        <v>377</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>396</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>437</v>
+        <v>487</v>
       </c>
     </row>
     <row r="43" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="9">
-        <v>3526210098794</v>
+        <v>1644425695250</v>
       </c>
       <c r="D43" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J43">
         <v>37</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="J43" s="1">
-        <v>20</v>
-      </c>
       <c r="L43" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="P43" s="6" t="s">
-        <v>393</v>
+        <v>378</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>396</v>
       </c>
       <c r="R43" s="1" t="s">
-        <v>438</v>
+        <v>488</v>
       </c>
     </row>
     <row r="44" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B44" s="9">
-        <v>3526210098795</v>
+        <v>1644425695251</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="J44" s="1">
+        <v>274</v>
+      </c>
+      <c r="J44">
         <v>45</v>
       </c>
       <c r="L44" s="1" t="s">
         <v>286</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="P44" s="6" t="s">
-        <v>393</v>
+        <v>379</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>396</v>
       </c>
       <c r="R44" s="1" t="s">
-        <v>439</v>
+        <v>489</v>
       </c>
     </row>
     <row r="45" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" s="9">
-        <v>3526210098796</v>
+        <v>1644425695252</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="J45" s="1">
-        <v>48</v>
+        <v>275</v>
+      </c>
+      <c r="J45">
+        <v>28</v>
       </c>
       <c r="L45" s="1" t="s">
         <v>287</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="P45" s="6" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="R45" s="1" t="s">
-        <v>440</v>
+        <v>490</v>
       </c>
     </row>
     <row r="46" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="9">
-        <v>3526210098797</v>
+        <v>1644425695253</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>59</v>
+        <v>175</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="J46" s="1">
-        <v>28</v>
+        <v>276</v>
+      </c>
+      <c r="J46">
+        <v>55</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>286</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>331</v>
+        <v>381</v>
       </c>
       <c r="P46" s="6" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>441</v>
+        <v>491</v>
       </c>
     </row>
     <row r="47" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B47" s="9">
-        <v>3526210098798</v>
+        <v>1644425695254</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>135</v>
+        <v>176</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="J47" s="1">
-        <v>55</v>
+        <v>277</v>
+      </c>
+      <c r="J47">
+        <v>23</v>
       </c>
       <c r="L47" s="1" t="s">
         <v>286</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>332</v>
+        <v>382</v>
       </c>
       <c r="P47" s="6" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>442</v>
+        <v>492</v>
       </c>
     </row>
     <row r="48" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48" s="9">
-        <v>3526210098799</v>
+        <v>1644425695255</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>136</v>
+        <v>177</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="J48" s="1">
-        <v>39</v>
+        <v>278</v>
+      </c>
+      <c r="J48">
+        <v>56</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>333</v>
+        <v>383</v>
       </c>
       <c r="P48" s="6" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="R48" s="1" t="s">
-        <v>443</v>
+        <v>493</v>
       </c>
     </row>
     <row r="49" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B49" s="9">
-        <v>3526210098800</v>
+        <v>1644425695256</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>101</v>
+        <v>178</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="J49" s="1">
-        <v>62</v>
+        <v>279</v>
+      </c>
+      <c r="J49">
+        <v>50</v>
       </c>
       <c r="L49" s="1" t="s">
         <v>287</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>334</v>
+        <v>384</v>
       </c>
       <c r="P49" s="6" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>444</v>
+        <v>494</v>
       </c>
     </row>
     <row r="50" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B50" s="9">
-        <v>3526210098801</v>
+        <v>1644425695257</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>135</v>
+        <v>179</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="J50" s="1">
-        <v>49</v>
+        <v>280</v>
+      </c>
+      <c r="J50">
+        <v>50</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>335</v>
+        <v>385</v>
       </c>
       <c r="P50" s="6" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="R50" s="1" t="s">
-        <v>445</v>
+        <v>495</v>
       </c>
     </row>
     <row r="51" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B51" s="9">
-        <v>3526210098802</v>
+        <v>1644425695258</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>137</v>
+        <v>63</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="J51" s="1">
-        <v>51</v>
+        <v>281</v>
+      </c>
+      <c r="J51">
+        <v>19</v>
       </c>
       <c r="L51" s="1" t="s">
         <v>287</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>336</v>
+        <v>386</v>
       </c>
       <c r="P51" s="6" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="R51" s="1" t="s">
-        <v>446</v>
+        <v>496</v>
       </c>
     </row>
     <row r="52" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B52" s="9">
-        <v>3526210098803</v>
+        <v>1644425695259</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>138</v>
+        <v>180</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="J52" s="1">
-        <v>62</v>
+        <v>282</v>
+      </c>
+      <c r="J52">
+        <v>25</v>
       </c>
       <c r="L52" s="1" t="s">
         <v>287</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>337</v>
+        <v>387</v>
       </c>
       <c r="P52" s="6" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="R52" s="1" t="s">
-        <v>447</v>
+        <v>497</v>
       </c>
     </row>
     <row r="53" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B53" s="9">
-        <v>3526210098804</v>
+        <v>1644425695260</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>139</v>
+        <v>181</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="J53" s="1">
-        <v>41</v>
+        <v>283</v>
+      </c>
+      <c r="J53">
+        <v>50</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>338</v>
+        <v>388</v>
       </c>
       <c r="P53" s="6" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>448</v>
+        <v>498</v>
       </c>
     </row>
     <row r="54" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B54" s="9">
-        <v>1644425695211</v>
+      <c r="B54" s="8">
+        <v>3320218245881</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="J54" s="1">
-        <v>35</v>
+        <v>184</v>
+      </c>
+      <c r="J54">
+        <v>22</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>339</v>
+        <v>289</v>
       </c>
       <c r="P54" s="6" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="R54" s="1" t="s">
-        <v>449</v>
+        <v>399</v>
       </c>
     </row>
     <row r="55" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B55" s="9">
-        <v>1644425695212</v>
+      <c r="B55" s="8">
+        <v>3320218245882</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>141</v>
+        <v>96</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="J55" s="1">
-        <v>60</v>
+        <v>185</v>
+      </c>
+      <c r="J55">
+        <v>29</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>340</v>
+        <v>290</v>
       </c>
       <c r="P55" s="6" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="R55" s="1" t="s">
-        <v>450</v>
+        <v>400</v>
       </c>
     </row>
     <row r="56" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B56" s="9">
-        <v>1644425695213</v>
+      <c r="B56" s="8">
+        <v>3320218245883</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="J56" s="1">
-        <v>54</v>
+        <v>186</v>
+      </c>
+      <c r="J56">
+        <v>63</v>
       </c>
       <c r="L56" s="1" t="s">
         <v>287</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>341</v>
+        <v>291</v>
       </c>
       <c r="P56" s="6" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="R56" s="1" t="s">
-        <v>451</v>
+        <v>401</v>
       </c>
     </row>
     <row r="57" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B57" s="9">
-        <v>1644425695214</v>
+      <c r="B57" s="8">
+        <v>3320218245884</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="J57" s="1">
-        <v>25</v>
+        <v>187</v>
+      </c>
+      <c r="J57">
+        <v>47</v>
       </c>
       <c r="L57" s="1" t="s">
         <v>287</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>342</v>
+        <v>292</v>
       </c>
       <c r="P57" s="6" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>452</v>
+        <v>402</v>
       </c>
     </row>
     <row r="58" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B58" s="9">
-        <v>1644425695215</v>
+      <c r="B58" s="8">
+        <v>3320218245885</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>144</v>
+        <v>99</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J58" s="1">
-        <v>60</v>
+        <v>188</v>
+      </c>
+      <c r="J58">
+        <v>37</v>
       </c>
       <c r="L58" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="P58" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="R58" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="59" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B59" s="8">
+        <v>3320218245886</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="J59">
+        <v>57</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="P59" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="R59" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="60" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B60" s="8">
+        <v>3320218245887</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J60">
+        <v>61</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="P60" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="R60" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="61" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B61" s="8">
+        <v>3320218245888</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J61">
+        <v>26</v>
+      </c>
+      <c r="L61" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="N58" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="P58" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="R58" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="59" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B59" s="9">
-        <v>1644425695216</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="J59" s="1">
-        <v>64</v>
-      </c>
-      <c r="L59" s="1" t="s">
+      <c r="N61" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="P61" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="R61" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="62" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B62" s="8">
+        <v>3320218245889</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="J62">
+        <v>26</v>
+      </c>
+      <c r="L62" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="N59" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="P59" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="R59" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="60" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B60" s="9">
-        <v>1644425695217</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="J60" s="1">
-        <v>62</v>
-      </c>
-      <c r="L60" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="N60" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="P60" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="R60" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="61" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B61" s="9">
-        <v>1644425695218</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="J61" s="1">
-        <v>21</v>
-      </c>
-      <c r="L61" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="N61" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="P61" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="R61" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="62" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B62" s="9">
-        <v>1644425695219</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="J62" s="1">
-        <v>59</v>
-      </c>
-      <c r="L62" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="N62" s="1" t="s">
-        <v>347</v>
+        <v>297</v>
       </c>
       <c r="P62" s="6" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>457</v>
+        <v>407</v>
       </c>
     </row>
     <row r="63" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B63" s="9">
-        <v>1644425695220</v>
+      <c r="B63" s="8">
+        <v>3320218245890</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="J63" s="1">
-        <v>32</v>
+        <v>193</v>
+      </c>
+      <c r="J63">
+        <v>28</v>
       </c>
       <c r="L63" s="1" t="s">
         <v>286</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>348</v>
+        <v>298</v>
       </c>
       <c r="P63" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>458</v>
+        <v>408</v>
       </c>
     </row>
     <row r="64" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B64" s="9">
-        <v>1644425695221</v>
+      <c r="B64" s="8">
+        <v>3320218245891</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="J64" s="1">
-        <v>23</v>
+        <v>194</v>
+      </c>
+      <c r="J64">
+        <v>31</v>
       </c>
       <c r="L64" s="1" t="s">
         <v>287</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>349</v>
+        <v>299</v>
       </c>
       <c r="P64" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="R64" s="1" t="s">
-        <v>459</v>
+        <v>409</v>
       </c>
     </row>
     <row r="65" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B65" s="9">
-        <v>1644425695222</v>
+      <c r="B65" s="8">
+        <v>3320218245892</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>151</v>
+        <v>106</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="J65" s="1">
-        <v>59</v>
+        <v>195</v>
+      </c>
+      <c r="J65">
+        <v>55</v>
       </c>
       <c r="L65" s="1" t="s">
         <v>286</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="P65" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="R65" s="1" t="s">
-        <v>460</v>
+        <v>410</v>
       </c>
     </row>
     <row r="66" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B66" s="9">
-        <v>1644425695223</v>
+      <c r="B66" s="8">
+        <v>3320218245893</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="J66" s="1">
-        <v>50</v>
+        <v>196</v>
+      </c>
+      <c r="J66">
+        <v>26</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="P66" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>461</v>
+        <v>411</v>
       </c>
     </row>
     <row r="67" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B67" s="9">
-        <v>1644425695224</v>
+      <c r="B67" s="8">
+        <v>3320218245894</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="J67" s="1">
-        <v>25</v>
+        <v>197</v>
+      </c>
+      <c r="J67">
+        <v>62</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>352</v>
+        <v>302</v>
       </c>
       <c r="P67" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="R67" s="1" t="s">
-        <v>462</v>
+        <v>412</v>
       </c>
     </row>
     <row r="68" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B68" s="9">
-        <v>1644425695225</v>
+      <c r="B68" s="8">
+        <v>3320218245895</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="J68" s="1">
-        <v>53</v>
+        <v>198</v>
+      </c>
+      <c r="J68">
+        <v>36</v>
       </c>
       <c r="L68" s="1" t="s">
         <v>286</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>353</v>
+        <v>303</v>
       </c>
       <c r="P68" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="R68" s="1" t="s">
-        <v>463</v>
+        <v>413</v>
       </c>
     </row>
     <row r="69" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B69" s="9">
-        <v>1644425695226</v>
+      <c r="B69" s="8">
+        <v>3320218245896</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="J69" s="1">
-        <v>44</v>
+        <v>199</v>
+      </c>
+      <c r="J69">
+        <v>24</v>
       </c>
       <c r="L69" s="1" t="s">
         <v>286</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>354</v>
+        <v>304</v>
       </c>
       <c r="P69" s="6" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="R69" s="1" t="s">
-        <v>464</v>
+        <v>414</v>
       </c>
     </row>
     <row r="70" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B70" s="9">
-        <v>1644425695227</v>
+      <c r="B70" s="8">
+        <v>3320218245897</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>154</v>
+        <v>111</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="J70" s="1">
-        <v>52</v>
+        <v>200</v>
+      </c>
+      <c r="J70">
+        <v>23</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>355</v>
+        <v>305</v>
       </c>
       <c r="P70" s="6" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="R70" s="1" t="s">
-        <v>465</v>
+        <v>415</v>
       </c>
     </row>
     <row r="71" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B71" s="9">
-        <v>1644425695228</v>
+      <c r="B71" s="8">
+        <v>3320218245898</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>155</v>
+        <v>112</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="J71" s="1">
-        <v>28</v>
+        <v>201</v>
+      </c>
+      <c r="J71">
+        <v>65</v>
       </c>
       <c r="L71" s="1" t="s">
         <v>286</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>356</v>
+        <v>306</v>
       </c>
       <c r="P71" s="6" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="R71" s="1" t="s">
-        <v>466</v>
+        <v>416</v>
       </c>
     </row>
     <row r="72" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B72" s="9">
-        <v>1644425695229</v>
+      <c r="B72" s="8">
+        <v>3320218245899</v>
       </c>
       <c r="D72" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="J72">
         <v>64</v>
       </c>
-      <c r="F72" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="J72" s="1">
-        <v>42</v>
-      </c>
       <c r="L72" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="N72" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="P72" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="R72" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B73" s="8">
+        <v>3320218245900</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="J73">
+        <v>40</v>
+      </c>
+      <c r="L73" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="N72" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="P72" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="R72" s="1" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="73" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B73" s="9">
-        <v>1644425695230</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="J73" s="1">
-        <v>50</v>
-      </c>
-      <c r="L73" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="N73" s="1" t="s">
-        <v>358</v>
+        <v>308</v>
       </c>
       <c r="P73" s="6" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="R73" s="1" t="s">
-        <v>468</v>
+        <v>418</v>
       </c>
     </row>
     <row r="74" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B74" s="9">
-        <v>1644425695231</v>
+      <c r="B74" s="8">
+        <v>3320218245901</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>158</v>
+        <v>115</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="J74" s="1">
-        <v>56</v>
+        <v>204</v>
+      </c>
+      <c r="J74">
+        <v>22</v>
       </c>
       <c r="L74" s="1" t="s">
         <v>286</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>359</v>
+        <v>309</v>
       </c>
       <c r="P74" s="6" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="R74" s="1" t="s">
-        <v>469</v>
+        <v>419</v>
       </c>
     </row>
     <row r="75" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B75" s="9">
-        <v>1644425695232</v>
+      <c r="B75" s="8">
+        <v>3320218245902</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="J75" s="1">
-        <v>44</v>
+        <v>205</v>
+      </c>
+      <c r="J75">
+        <v>62</v>
       </c>
       <c r="L75" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="N75" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="P75" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="R75" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B76" s="8">
+        <v>3320218245903</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="J76">
+        <v>18</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="N76" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="P76" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="R76" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B77" s="8">
+        <v>3320218245904</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="J77">
+        <v>51</v>
+      </c>
+      <c r="L77" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="N75" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="P75" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="R75" s="1" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="76" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B76" s="9">
-        <v>1644425695233</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="J76" s="1">
-        <v>65</v>
-      </c>
-      <c r="L76" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="N76" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="P76" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="R76" s="1" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="77" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B77" s="9">
-        <v>1644425695234</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="J77" s="1">
-        <v>64</v>
-      </c>
-      <c r="L77" s="1" t="s">
-        <v>287</v>
-      </c>
       <c r="N77" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="P77" s="7" t="s">
-        <v>396</v>
+        <v>312</v>
+      </c>
+      <c r="P77" s="6" t="s">
+        <v>392</v>
       </c>
       <c r="R77" s="1" t="s">
-        <v>472</v>
+        <v>422</v>
       </c>
     </row>
     <row r="78" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B78" s="9">
-        <v>1644425695235</v>
+      <c r="B78" s="8">
+        <v>3320218245905</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="J78" s="1">
-        <v>24</v>
+        <v>208</v>
+      </c>
+      <c r="J78">
+        <v>48</v>
       </c>
       <c r="L78" s="1" t="s">
         <v>287</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="P78" s="7" t="s">
-        <v>396</v>
+        <v>313</v>
+      </c>
+      <c r="P78" s="6" t="s">
+        <v>393</v>
       </c>
       <c r="R78" s="1" t="s">
-        <v>473</v>
+        <v>423</v>
       </c>
     </row>
     <row r="79" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B79" s="9">
-        <v>1644425695236</v>
+        <v>3526210098780</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>163</v>
+        <v>120</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="J79" s="1">
-        <v>45</v>
+        <v>209</v>
+      </c>
+      <c r="J79">
+        <v>60</v>
       </c>
       <c r="L79" s="1" t="s">
         <v>287</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="P79" s="7" t="s">
-        <v>396</v>
+        <v>314</v>
+      </c>
+      <c r="P79" s="6" t="s">
+        <v>393</v>
       </c>
       <c r="R79" s="1" t="s">
-        <v>474</v>
+        <v>424</v>
       </c>
     </row>
     <row r="80" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B80" s="9">
-        <v>1644425695237</v>
+        <v>3526210098781</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="J80" s="1">
-        <v>36</v>
+        <v>210</v>
+      </c>
+      <c r="J80">
+        <v>24</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="P80" s="7" t="s">
-        <v>396</v>
+        <v>315</v>
+      </c>
+      <c r="P80" s="6" t="s">
+        <v>393</v>
       </c>
       <c r="R80" s="1" t="s">
-        <v>475</v>
+        <v>425</v>
       </c>
     </row>
     <row r="81" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B81" s="9">
-        <v>1644425695238</v>
+        <v>3526210098782</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>164</v>
+        <v>122</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="J81" s="1">
-        <v>43</v>
+        <v>211</v>
+      </c>
+      <c r="J81">
+        <v>62</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="P81" s="7" t="s">
-        <v>396</v>
+        <v>316</v>
+      </c>
+      <c r="P81" s="6" t="s">
+        <v>393</v>
       </c>
       <c r="R81" s="1" t="s">
-        <v>476</v>
+        <v>426</v>
       </c>
     </row>
     <row r="82" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B82" s="9">
-        <v>1644425695239</v>
+        <v>3526210098783</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>165</v>
+        <v>123</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="J82" s="1">
-        <v>55</v>
+        <v>212</v>
+      </c>
+      <c r="J82">
+        <v>35</v>
       </c>
       <c r="L82" s="1" t="s">
         <v>287</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="P82" s="7" t="s">
-        <v>396</v>
+        <v>317</v>
+      </c>
+      <c r="P82" s="6" t="s">
+        <v>393</v>
       </c>
       <c r="R82" s="1" t="s">
-        <v>477</v>
+        <v>427</v>
       </c>
     </row>
     <row r="83" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B83" s="9">
-        <v>1644425695240</v>
+        <v>3526210098784</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>166</v>
+        <v>124</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="J83" s="1">
-        <v>55</v>
+        <v>213</v>
+      </c>
+      <c r="J83">
+        <v>42</v>
       </c>
       <c r="L83" s="1" t="s">
         <v>287</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="P83" s="7" t="s">
-        <v>396</v>
+        <v>318</v>
+      </c>
+      <c r="P83" s="6" t="s">
+        <v>393</v>
       </c>
       <c r="R83" s="1" t="s">
-        <v>478</v>
+        <v>428</v>
       </c>
     </row>
     <row r="84" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B84" s="9">
-        <v>1644425695241</v>
+        <v>3526210098785</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="J84" s="1">
-        <v>62</v>
+        <v>214</v>
+      </c>
+      <c r="J84">
+        <v>63</v>
       </c>
       <c r="L84" s="1" t="s">
         <v>286</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="P84" s="7" t="s">
-        <v>396</v>
+        <v>319</v>
+      </c>
+      <c r="P84" s="6" t="s">
+        <v>393</v>
       </c>
       <c r="R84" s="1" t="s">
-        <v>479</v>
+        <v>429</v>
       </c>
     </row>
     <row r="85" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B85" s="9">
-        <v>1644425695242</v>
+        <v>3526210098786</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>168</v>
+        <v>126</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="J85" s="1">
-        <v>38</v>
+        <v>215</v>
+      </c>
+      <c r="J85">
+        <v>61</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="P85" s="7" t="s">
-        <v>396</v>
+        <v>320</v>
+      </c>
+      <c r="P85" s="6" t="s">
+        <v>393</v>
       </c>
       <c r="R85" s="1" t="s">
-        <v>480</v>
+        <v>430</v>
       </c>
     </row>
     <row r="86" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B86" s="9">
-        <v>1644425695243</v>
+        <v>3526210098787</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>161</v>
+        <v>20</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J86" s="1">
-        <v>57</v>
+        <v>216</v>
+      </c>
+      <c r="J86">
+        <v>20</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="P86" s="7" t="s">
-        <v>396</v>
+        <v>321</v>
+      </c>
+      <c r="P86" s="6" t="s">
+        <v>393</v>
       </c>
       <c r="R86" s="1" t="s">
-        <v>481</v>
+        <v>431</v>
       </c>
     </row>
     <row r="87" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B87" s="9">
-        <v>1644425695244</v>
+        <v>3526210098788</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>169</v>
+        <v>127</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="J87" s="1">
-        <v>47</v>
+        <v>217</v>
+      </c>
+      <c r="J87">
+        <v>53</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N87" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="P87" s="7" t="s">
-        <v>396</v>
+        <v>322</v>
+      </c>
+      <c r="P87" s="6" t="s">
+        <v>393</v>
       </c>
       <c r="R87" s="1" t="s">
-        <v>482</v>
+        <v>432</v>
       </c>
     </row>
     <row r="88" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B88" s="9">
-        <v>1644425695245</v>
+        <v>3526210098789</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="J88" s="1">
-        <v>62</v>
+        <v>218</v>
+      </c>
+      <c r="J88">
+        <v>43</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N88" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="P88" s="7" t="s">
-        <v>396</v>
+        <v>323</v>
+      </c>
+      <c r="P88" s="6" t="s">
+        <v>393</v>
       </c>
       <c r="R88" s="1" t="s">
-        <v>483</v>
+        <v>433</v>
       </c>
     </row>
     <row r="89" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B89" s="9">
-        <v>1644425695246</v>
+        <v>3526210098790</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>170</v>
+        <v>67</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="J89" s="1">
-        <v>63</v>
+        <v>219</v>
+      </c>
+      <c r="J89">
+        <v>34</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="P89" s="7" t="s">
-        <v>396</v>
+        <v>324</v>
+      </c>
+      <c r="P89" s="6" t="s">
+        <v>393</v>
       </c>
       <c r="R89" s="1" t="s">
-        <v>484</v>
+        <v>434</v>
       </c>
     </row>
     <row r="90" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B90" s="9">
-        <v>1644425695247</v>
+        <v>3526210098791</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>171</v>
+        <v>129</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="J90" s="1">
-        <v>32</v>
+        <v>220</v>
+      </c>
+      <c r="J90">
+        <v>52</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="P90" s="7" t="s">
-        <v>396</v>
+        <v>325</v>
+      </c>
+      <c r="P90" s="6" t="s">
+        <v>393</v>
       </c>
       <c r="R90" s="1" t="s">
-        <v>485</v>
+        <v>435</v>
       </c>
     </row>
     <row r="91" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B91" s="9">
-        <v>1644425695248</v>
+        <v>3526210098792</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="J91" s="1">
-        <v>48</v>
+        <v>221</v>
+      </c>
+      <c r="J91">
+        <v>62</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="P91" s="7" t="s">
-        <v>396</v>
+        <v>326</v>
+      </c>
+      <c r="P91" s="6" t="s">
+        <v>393</v>
       </c>
       <c r="R91" s="1" t="s">
-        <v>486</v>
+        <v>436</v>
       </c>
     </row>
     <row r="92" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B92" s="9">
-        <v>1644425695249</v>
+        <v>3526210098793</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>172</v>
+        <v>131</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="J92" s="1">
-        <v>65</v>
+        <v>222</v>
+      </c>
+      <c r="J92">
+        <v>49</v>
       </c>
       <c r="L92" s="1" t="s">
         <v>286</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="P92" s="7" t="s">
-        <v>396</v>
+        <v>327</v>
+      </c>
+      <c r="P92" s="6" t="s">
+        <v>393</v>
       </c>
       <c r="R92" s="1" t="s">
-        <v>487</v>
+        <v>437</v>
       </c>
     </row>
     <row r="93" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B93" s="9">
-        <v>1644425695250</v>
+        <v>3526210098794</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="J93" s="1">
-        <v>30</v>
+        <v>223</v>
+      </c>
+      <c r="J93">
+        <v>45</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="P93" s="7" t="s">
-        <v>396</v>
+        <v>328</v>
+      </c>
+      <c r="P93" s="6" t="s">
+        <v>393</v>
       </c>
       <c r="R93" s="1" t="s">
-        <v>488</v>
+        <v>438</v>
       </c>
     </row>
     <row r="94" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B94" s="9">
-        <v>1644425695251</v>
+        <v>3526210098795</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="J94" s="1">
-        <v>64</v>
+        <v>224</v>
+      </c>
+      <c r="J94">
+        <v>51</v>
       </c>
       <c r="L94" s="1" t="s">
         <v>286</v>
       </c>
       <c r="N94" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="P94" s="7" t="s">
-        <v>396</v>
+        <v>329</v>
+      </c>
+      <c r="P94" s="6" t="s">
+        <v>393</v>
       </c>
       <c r="R94" s="1" t="s">
-        <v>489</v>
+        <v>439</v>
       </c>
     </row>
     <row r="95" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B95" s="9">
-        <v>1644425695252</v>
+        <v>3526210098796</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="J95" s="1">
-        <v>65</v>
+        <v>225</v>
+      </c>
+      <c r="J95">
+        <v>35</v>
       </c>
       <c r="L95" s="1" t="s">
         <v>287</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="P95" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="R95" s="1" t="s">
-        <v>490</v>
+        <v>440</v>
       </c>
     </row>
     <row r="96" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B96" s="9">
-        <v>1644425695253</v>
+        <v>3526210098797</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>175</v>
+        <v>59</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="J96" s="1">
-        <v>19</v>
+        <v>226</v>
+      </c>
+      <c r="J96">
+        <v>32</v>
       </c>
       <c r="L96" s="1" t="s">
         <v>286</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
       <c r="P96" s="6" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="R96" s="1" t="s">
-        <v>491</v>
+        <v>441</v>
       </c>
     </row>
     <row r="97" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B97" s="9">
-        <v>1644425695254</v>
+        <v>3526210098798</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J97" s="1">
-        <v>61</v>
+        <v>227</v>
+      </c>
+      <c r="J97">
+        <v>46</v>
       </c>
       <c r="L97" s="1" t="s">
         <v>286</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>382</v>
+        <v>332</v>
       </c>
       <c r="P97" s="6" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="R97" s="1" t="s">
-        <v>492</v>
+        <v>442</v>
       </c>
     </row>
     <row r="98" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B98" s="9">
-        <v>1644425695255</v>
+        <v>3526210098799</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>177</v>
+        <v>136</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="J98" s="1">
-        <v>36</v>
+        <v>228</v>
+      </c>
+      <c r="J98">
+        <v>34</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>383</v>
+        <v>333</v>
       </c>
       <c r="P98" s="6" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="R98" s="1" t="s">
-        <v>493</v>
+        <v>443</v>
       </c>
     </row>
     <row r="99" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B99" s="9">
-        <v>1644425695256</v>
+        <v>3526210098800</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>178</v>
+        <v>101</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="J99" s="1">
-        <v>45</v>
+        <v>229</v>
+      </c>
+      <c r="J99">
+        <v>61</v>
       </c>
       <c r="L99" s="1" t="s">
         <v>287</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>384</v>
+        <v>334</v>
       </c>
       <c r="P99" s="6" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="R99" s="1" t="s">
-        <v>494</v>
+        <v>444</v>
       </c>
     </row>
     <row r="100" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B100" s="9">
-        <v>1644425695257</v>
+        <v>3526210098801</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>179</v>
+        <v>135</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="J100" s="1">
-        <v>50</v>
+        <v>230</v>
+      </c>
+      <c r="J100">
+        <v>28</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>385</v>
+        <v>335</v>
       </c>
       <c r="P100" s="6" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="R100" s="1" t="s">
-        <v>495</v>
+        <v>445</v>
       </c>
     </row>
     <row r="101" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B101" s="9">
-        <v>1644425695258</v>
+        <v>3526210098802</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>63</v>
+        <v>137</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="J101" s="1">
-        <v>47</v>
+        <v>231</v>
+      </c>
+      <c r="J101">
+        <v>58</v>
       </c>
       <c r="L101" s="1" t="s">
         <v>287</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>386</v>
+        <v>336</v>
       </c>
       <c r="P101" s="6" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="R101" s="1" t="s">
-        <v>496</v>
+        <v>446</v>
       </c>
     </row>
     <row r="102" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B102" s="9">
-        <v>1644425695259</v>
+        <v>3526210098803</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>180</v>
+        <v>138</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="J102" s="1">
-        <v>38</v>
+        <v>232</v>
+      </c>
+      <c r="J102">
+        <v>48</v>
       </c>
       <c r="L102" s="1" t="s">
         <v>287</v>
       </c>
       <c r="N102" s="1" t="s">
-        <v>387</v>
+        <v>337</v>
       </c>
       <c r="P102" s="6" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="R102" s="1" t="s">
-        <v>497</v>
+        <v>447</v>
       </c>
     </row>
     <row r="103" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B103" s="9">
-        <v>1644425695260</v>
+        <v>3526210098804</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>181</v>
+        <v>139</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="J103" s="1">
-        <v>49</v>
+        <v>233</v>
+      </c>
+      <c r="J103">
+        <v>54</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N103" s="1" t="s">
-        <v>388</v>
+        <v>338</v>
       </c>
       <c r="P103" s="6" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="R103" s="1" t="s">
-        <v>498</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:R103">
+    <sortCondition ref="B4"/>
+  </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="B4:B103">
     <cfRule type="duplicateValues" dxfId="9" priority="1"/>
@@ -7860,7 +7857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB3095F-F57B-408C-9A02-3ADE3D5CF50D}">
   <dimension ref="B1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
